--- a/biology/Zoologie/Elgaria_velazquezi/Elgaria_velazquezi.xlsx
+++ b/biology/Zoologie/Elgaria_velazquezi/Elgaria_velazquezi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elgaria velazquezi est une espèce de sauriens de la famille des Anguidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elgaria velazquezi est une espèce de sauriens de la famille des Anguidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Basse-Californie du Sud au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Basse-Californie du Sud au Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Elgaria velazquezi[2], un mâle adulte, mesure 115 mm queue non comprise. Son dos est brun et sa tête présente des taches gris foncé. Sa face ventrale est blanc terne avec quelques traces crème dans la région abdominale.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Elgaria velazquezi, un mâle adulte, mesure 115 mm queue non comprise. Son dos est brun et sa tête présente des taches gris foncé. Sa face ventrale est blanc terne avec quelques traces crème dans la région abdominale.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Victor Velázquez-Solis[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Victor Velázquez-Solis.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Grismer &amp; Hollingsworth, 2001 : A taxonomic review of the endemic Alligator Lizard Elgaria paucicarinata (Anguidae: Squamata) of Baja California, México with a description of a new species. Herpetologica, vol. 57, no 4, p. 488-496 (texte intégral).</t>
         </is>
